--- a/SlimAtika/gr/Лендинг SlimAtika GR.xlsx
+++ b/SlimAtika/gr/Лендинг SlimAtika GR.xlsx
@@ -17,15 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="160">
   <si>
     <t>SlimAtika</t>
   </si>
   <si>
-    <t>Σταγόνες</t>
-  </si>
-  <si>
-    <t>Αδυνάτισματος</t>
+    <t>ΣΤΑΓΟΝΕΣ</t>
+  </si>
+  <si>
+    <t>ΑΔΥΝΑΤΙΣΜΑΤΟΣ</t>
+  </si>
+  <si>
+    <t>SLIMATIKA</t>
   </si>
   <si>
     <t>Απαλλαγείτε από τα επιπλέον κιλά</t>
@@ -34,7 +37,7 @@
     <t>γρήγορα</t>
   </si>
   <si>
-    <t>και χωρίς ίχνος!</t>
+    <t>και αποτελεσματικά!</t>
   </si>
   <si>
     <t>Δεν έχει περιορισμούς κατα την λήψη</t>
@@ -64,7 +67,7 @@
     <t>€ 78</t>
   </si>
   <si>
-    <t>Μέχρι το τέλος της προσφοράς:</t>
+    <t>ΜΕΧΡΙ ΤΟ ΤΕΛΟΣ ΤΗΣ ΠΡΟΣΦΟΡΑΣ:</t>
   </si>
   <si>
     <t xml:space="preserve">: </t>
@@ -88,7 +91,7 @@
     <t>10 τεμ</t>
   </si>
   <si>
-    <t>Πλεονεκτήματα</t>
+    <t>ΠΛΕΟΝΕΚΤΗΜΑΤΑ</t>
   </si>
   <si>
     <t>Οι σταγόνες Slimatika με τακτική χρήση σας επιτρέπουν να έχετε</t>
@@ -106,7 +109,7 @@
     <t>Αφαίρεση</t>
   </si>
   <si>
-    <t>των περίσσειων υγρών, απαλλαγείτε από το πρήξιμο και απο το λίπος του δέρματος</t>
+    <t xml:space="preserve">των περίσσειων υγρών, απαλλαγείτε από το πρήξιμο και απο το υποδόριο λίπος </t>
   </si>
   <si>
     <t>Επιτάχυνση</t>
@@ -128,10 +131,13 @@
     <t>της αντοχής και της απόδοσης</t>
   </si>
   <si>
-    <t>Ομαλύνω</t>
-  </si>
-  <si>
-    <t>την όρεξη</t>
+    <t>Έλεγχος</t>
+  </si>
+  <si>
+    <t>όρεξης</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μείωση </t>
   </si>
   <si>
     <t>του λίπος από τους γλουτούς</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">Βελτιώνει </t>
   </si>
   <si>
-    <t xml:space="preserve">ορατά </t>
-  </si>
-  <si>
-    <t>το δέρμα</t>
+    <t xml:space="preserve">ορατά την όψη </t>
+  </si>
+  <si>
+    <t>το δέρματος</t>
   </si>
   <si>
     <t xml:space="preserve">Αποκαταστά </t>
@@ -158,7 +164,7 @@
     <t>τον οργανισμό</t>
   </si>
   <si>
-    <t>Τι είναι οι Slimatika?</t>
+    <t>ΤΙ ΕΙΝΑΙ ΟΙ SLIMATIKA?</t>
   </si>
   <si>
     <t>Οι Slimatika</t>
@@ -180,16 +186,16 @@
     <t>θα ομαλοποιήσετε τον μεταβολισμό σας και θα απαλλαγείτε από το λίπος.</t>
   </si>
   <si>
-    <t xml:space="preserve">Οι Slimatika έχουν μια διαφορετική σύνθεση. Περιλαμβάνει </t>
+    <t xml:space="preserve">Τα Slimatika έχουν μια διαφορετική σύνθεση. Περιλαμβάνει </t>
   </si>
   <si>
     <t>μια τεράστια ποσότητα βιταμινών και μετάλλων,</t>
   </si>
   <si>
-    <t>οι οποίες με τον καλύτερο τρόπο επηρεάζουν το ανθρώπινο οργανισμό, διεγείρουν την απώλεια βάρους σε εκείνα τα μέρη όπου συσσωρεύεται το μεγαλύτερο μέρος του λίπους.</t>
-  </si>
-  <si>
-    <t>100% φυσική σύνθεση</t>
+    <t>οι οποίες με τον καλύτερο τρόπο επηρεάζουν το ανθρώπινο οργανισμό, ενεργοποιούν την απώλεια βάρους σε εκείνα τα μέρη όπου συσσωρεύεται το μεγαλύτερο μέρος του λίπους.</t>
+  </si>
+  <si>
+    <t>100% ΦΥΣΙΚΗ ΣΥΝΘΕΣΗ</t>
   </si>
   <si>
     <t>Εκχύλισμα</t>
@@ -244,7 +250,7 @@
     <t>Υποστηρίζουν ένα επαρκές επίπεδο ενέργειας στο οργανισμό, καλυτερεύει τη κατάσταση του δέρματος, τη δομή των μαλλιών, την εξισορρόπηση της ζωτικής τονικότητας, την ομαλοποίηση του νευρικού συστήματος και του ύπνου.</t>
   </si>
   <si>
-    <t>Πώς λειτουργούν οι Slimatika?</t>
+    <t>ΠΩΣ ΛΕΙΤΟΥΡΓΕΙ ΤΟ SLIMATIKA?</t>
   </si>
   <si>
     <t>Μια καλά ισορροπημένη σύνθεση</t>
@@ -265,7 +271,7 @@
     <t>Δεν θα θέλετε να τρώτε συνέχεια, καθώς η όρεξη μειώνεται σημαντικά. Θετικές αλλαγές συμβάλλουν στο μεταβολισμό, ο οποίος επιταχύνεται. Λόγω αυτού, είναι ευκολότερο για ένα άτομο να διατηρήσει ένα κανονικό βάρος στο μέλλον, χωρίς να καταφεύγει σε δίαιτες και προπονήσεις.</t>
   </si>
   <si>
-    <t>Ενδείξεις χρήσης</t>
+    <t>ΕΝΔΕΙΞΕΙΣ ΧΡΗΣΗΣ</t>
   </si>
   <si>
     <t>Τα αποτελέσματα της έρευνας δείχνουν ότι οι σταγόνες Slimatika</t>
@@ -280,26 +286,25 @@
     <t>Επιπλέον, το συμπλήρωμα συνιστάται η χρήση του στις ακόλουθες κατηγορίες ατόμων:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ποιος πήρε υπερβολικό βάρος και πρόκειται να το ξεφορτωθεί σε σύντομο χρονικό διάστημα
-</t>
-  </si>
-  <si>
-    <t>Ποιος δεν έχασε πολλά κιλά, και τώρα προσπαθεί να ανακτήσει την φιγούρα του</t>
-  </si>
-  <si>
-    <t>Ποιος πήρε επιπλέον κιλά όχι όμως με τη δική του ελεύθερη βούληση, αλλά λόγω ορισμένων παραβιάσεων στον οργανισμό του</t>
-  </si>
-  <si>
-    <t>Ποιος θέλει να χάσει βάρος μέχρι το καλοκαίρι, την άνοιξη ή οποιαδήποτε άλλη εποχή της χρονιάς</t>
-  </si>
-  <si>
-    <t>Ποιος θέλει να χάσει βάρος το συντομότερο δυνατόν, χωρίς να καταφύγει σε βαριά σωματική δραστηριότητα και με δύσκολες δίαιτες</t>
-  </si>
-  <si>
-    <t>Ποιος θέλει να χάσει βάρος χωρίς να βλάψει την υγεία του</t>
-  </si>
-  <si>
-    <t>Πώς γίνετε η λήψη των σταγόνων Slimatika?</t>
+    <t>Γι’ αυτούς που εχουν  υπερβολικό βάρος και θέλουν να τα ξεφορτωθούν σε σύντομο χρονικό διάστημα</t>
+  </si>
+  <si>
+    <t>Γι’ αυτούς δεν έχασαν πολλά κιλά, και τώρα προσπαθούν να ανακτήσουν την φιγούρα τους</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Γι’ αυτούς που πήραν επιπλέων κιλά από φαρμακευτικές αγωγές </t>
+  </si>
+  <si>
+    <t>Γι’ αυτούς που θέλουν να χάσουνε βάρος μέχρι το καλοκαίρι, την άνοιξη ή οποιαδήποτε άλλη εποχή της χρονιάς</t>
+  </si>
+  <si>
+    <t>Γι’ αυτούς που θέλουν να χάσουνε βάρος το συντομότερο δυνατόν, χωρίς να καταφύγει σε βαριά σωματική δραστηριότητα και με δύσκολες δίαιτες</t>
+  </si>
+  <si>
+    <t>Γι’ αυτούς που θέλουν να χάσουνε βάρος χωρίς να βλάψουν την υγεία τους</t>
+  </si>
+  <si>
+    <t>ΠΩΣ ΓΙΝΕΤΕ Η ΛΗΨΗ ΤΩΝ ΣΤΑΓΟΝΩΝ SLIMATIKA?</t>
   </si>
   <si>
     <t xml:space="preserve">Προετοιμάστε 
@@ -312,18 +317,21 @@
     <t xml:space="preserve"> (200 ml)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ρίξτε  </t>
+  </si>
+  <si>
+    <t>15 σταγόνες</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Περιμένετε να διαλυθεί </t>
+  </si>
+  <si>
+    <t>εντελώς το συμπλήρωμα.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Πιείτε </t>
   </si>
   <si>
-    <t>15 σταγόνες</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Περιμένετε να διαλυθεί </t>
-  </si>
-  <si>
-    <t>εντελώς το συμπλήρωμα.</t>
-  </si>
-  <si>
     <t>το συμπλήρωμα</t>
   </si>
   <si>
@@ -339,13 +347,13 @@
     <t>με κάθε γουλιά</t>
   </si>
   <si>
-    <t>Γνώμη ειδικού</t>
+    <t>ΓΝΩΜΗ ΕΙΔΙΚΟΥ</t>
   </si>
   <si>
     <t xml:space="preserve">Οι σταγόνες Slimatika </t>
   </si>
   <si>
-    <t>είναι ειδικές σταγόνες κατα του αδυνατίσματος</t>
+    <t>είναι ειδικές σταγόνες αδυνατίσματος</t>
   </si>
   <si>
     <t>Είναι κατάλληλα για όλους ,</t>
@@ -357,7 +365,7 @@
     <t xml:space="preserve">σύμπλεγμα των φυσικών συστατικών - "λιποδιαλύτες", </t>
   </si>
   <si>
-    <t>βιταμίνες και μέταλλα, σκέφτεστε λιγότερο για το φαγητό και θα τρώτε λιγότερα σνακ.</t>
+    <t>βιταμίνες και μέταλλα, σκέφτεστε λιγότερο το φαγητό και θα τρώτε λιγότερα σνακ.</t>
   </si>
   <si>
     <t>διασπά το λίπος και βοηθά στην αποτροπή</t>
@@ -372,10 +380,10 @@
     <t>Διατροφολόγος</t>
   </si>
   <si>
-    <t>Κριτικές</t>
-  </si>
-  <si>
-    <t>πελατών</t>
+    <t>ΚΡΙΤΙΚΕΣ</t>
+  </si>
+  <si>
+    <t>ΠΕΛΑΤΩΝ</t>
   </si>
   <si>
     <t>Σοφία</t>
@@ -403,7 +411,7 @@
     <t>32 ετών</t>
   </si>
   <si>
-    <t>Δεν ήμουν ποτέ αδύνατη. Το βάρος μου κυμαινόταν από 65-68 κιλά. Αλλά μετά τον τοκετό, πήρα 15 κιλά. 80 κιλά ήταν ήδη πάρα πολλά. Αλλά με το παιδί δεν υπάρχει καθόλου χρόνος για τον εαυτό του. Δεν μπορούσα να πηγαίνω στο γυμναστήριο. Είδα τις σταγόνες Slimatika στο ίντερνετ και αποφάσισα να τις δοκιμάσω. Μετά την πρώτη εβδομάδα λήψης, παρατήρησα μια σημαντική μείωση της όρεξης και αυξήθηκε η σωματική μου δραστηριότητα. Πραγματικά άρχισα να τρώω λιγότερο και ένιωθα υπέροχα. Σε δύο μήνες κατάφερα να χάσω 15 κιλά. Είμαι πολύ ευχαριστημένη με αυτό το αποτέλεσμα. Συνιστώ αυτή τις σταγόνες σε όποιον θέλει να έχει μια όμορφη σιλουέτα.</t>
+    <t>Δεν ήμουν ποτέ αδύνατη. Το βάρος μου κυμαινόταν από 65-68 κιλά. Αλλά μετά τον τοκετό, πήρα 15 κιλά. 80 κιλά ήταν ήδη πάρα πολλά. Αλλά με το παιδί δεν υπάρχει καθόλου χρόνος για τον εαυτό μου. Δεν μπορούσα να πηγαίνω στο γυμναστήριο. Είδα τις σταγόνες Slimatika στο ίντερνετ και αποφάσισα να τις δοκιμάσω. Μετά την πρώτη εβδομάδα λήψης, παρατήρησα μια σημαντική μείωση της όρεξης και αυξήθηκε η σωματική μου αντοχή. Πραγματικά άρχισα να τρώω λιγότερο και ένιωθα υπέροχα. Σε δύο μήνες κατάφερα να χάσω 15 κιλά. Είμαι πολύ ευχαριστημένη με αυτό το αποτέλεσμα. Συνιστώ αυτή τις σταγόνες σε όποιον θέλει να έχει μια όμορφη σιλουέτα.</t>
   </si>
   <si>
     <t>ΠΩΣ ΝΑ ΚΑΝΕΤΕ</t>
@@ -442,10 +450,16 @@
     <t>Πληρώνετε την παραγγελία κατά την παραλαβή</t>
   </si>
   <si>
+    <t>ΜΕΧΡΙ ΤΟ ΤΕΛΟΣ ΤΗΣ ΠΡΟΣΦΟΡΑΣ ΕΜΕΙΝΑΝ:</t>
+  </si>
+  <si>
+    <t>Έμειναν:</t>
+  </si>
+  <si>
     <t>10 τεμ.</t>
   </si>
   <si>
-    <t>Sport&amp;Fit, Sapfous 6, Athina 105 53, Athens, Greece</t>
+    <t>Sport&amp;Fit, 26th Oktovriou, 546 27, Thessaloniki, Greece</t>
   </si>
   <si>
     <t>Privacy policy</t>
@@ -1008,14 +1022,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1033,6 +1051,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -1043,8 +1072,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1054,28 +1083,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1305,3354 +1358,3979 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
+      <c r="A19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
+      <c r="A28" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>28</v>
+      <c r="A31" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>32</v>
+      <c r="A35" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>34</v>
+      <c r="A37" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="A39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="A40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
+      <c r="A43" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A44" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A45" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="A57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>57</v>
+      <c r="A62" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>58</v>
+      <c r="A63" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>59</v>
+      <c r="A64" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>61</v>
+      <c r="A66" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>62</v>
+      <c r="A67" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>64</v>
+      <c r="A69" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>65</v>
+      <c r="A70" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>57</v>
+      <c r="A72" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>67</v>
+      <c r="A73" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>57</v>
+      <c r="A75" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>69</v>
+      <c r="A76" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>71</v>
+      <c r="A78" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>72</v>
+      <c r="A79" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A81" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="A89" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A94" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>87</v>
+      <c r="A95" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>88</v>
+      <c r="A96" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>89</v>
+      <c r="A97" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>90</v>
+      <c r="A98" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>91</v>
+      <c r="A99" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4" t="s">
-        <v>92</v>
+      <c r="A100" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="4" t="s">
-        <v>96</v>
+      <c r="A104" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>105</v>
+      <c r="A114" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="4" t="s">
-        <v>107</v>
-      </c>
+      <c r="A116" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="A120" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>100</v>
+      <c r="A121" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A127" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A128" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A137" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="2" t="s">
-        <v>129</v>
+      <c r="A140" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>130</v>
+      <c r="A141" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="2" t="s">
-        <v>132</v>
+      <c r="A143" s="7" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="2" t="s">
-        <v>133</v>
+      <c r="A144" s="7" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="2" t="s">
-        <v>134</v>
+      <c r="A145" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="2" t="s">
-        <v>135</v>
+      <c r="A146" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="2" t="s">
-        <v>136</v>
+      <c r="A147" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="2" t="s">
-        <v>137</v>
+      <c r="A148" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2" t="s">
-        <v>138</v>
+      <c r="A149" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
-        <v>0</v>
+      <c r="A152" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="4" t="s">
-        <v>5</v>
+      <c r="A155" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
-        <v>10</v>
+      <c r="A160" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
-        <v>13</v>
+      <c r="A163" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
-        <v>14</v>
+      <c r="A164" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="4" t="s">
-        <v>15</v>
+      <c r="A165" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="3" t="s">
-        <v>16</v>
+      <c r="A166" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="3" t="s">
-        <v>16</v>
+      <c r="A167" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="4" t="s">
-        <v>21</v>
+      <c r="A172" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="7" t="s">
-        <v>140</v>
-      </c>
+      <c r="A174" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="3"/>
+      <c r="T174" s="3"/>
+      <c r="U174" s="3"/>
+      <c r="V174" s="3"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+      <c r="Y174" s="3"/>
+      <c r="Z174" s="3"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="3" t="s">
-        <v>141</v>
+      <c r="A175" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="3" t="s">
-        <v>142</v>
+      <c r="A176" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="3" t="s">
-        <v>143</v>
+      <c r="A177" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="3"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="3"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="3"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="3"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="3"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="3"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="3"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="3"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="3"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="3"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="3"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="3"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="3"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="3"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="3"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="3"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="3"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="3"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="3"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="3"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="3"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="3"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="3"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="3"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="3"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="3"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="3"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="3"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="3"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="3"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="3"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="3"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="3"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="3"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="3"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="3"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="3"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="3"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="3"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="3"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="3"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="3"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="3"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="3"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="3"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="3"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="3"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="3"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="3"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="3"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="3"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="3"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="3"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="3"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="3"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="3"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="3"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="3"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="3"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="3"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="3"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="3"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="3"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="3"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="3"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="3"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="3"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="3"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="3"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="3"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="3"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="3"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="3"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="3"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="3"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="3"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="3"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="3"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="3"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="3"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="3"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="3"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="3"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="3"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="3"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="3"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="3"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="3"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="3"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="3"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="3"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="3"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="3"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="3"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="3"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="3"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="3"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="3"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="3"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="3"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="3"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="3"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="3"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="3"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="3"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="3"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="3"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="3"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="3"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="3"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="3"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="3"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="3"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="3"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="3"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="3"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="3"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="3"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="3"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="3"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="3"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="3"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="3"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="3"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="3"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="3"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="3"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="3"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="3"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="3"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="3"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="3"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="3"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="3"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="3"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="3"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="3"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="3"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="3"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="3"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="3"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="3"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="3"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="3"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="3"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="3"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="3"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="3"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="3"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="3"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="3"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="3"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="3"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="3"/>
+      <c r="A367" s="1"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="3"/>
+      <c r="A368" s="1"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="3"/>
+      <c r="A369" s="1"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="3"/>
+      <c r="A370" s="1"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="3"/>
+      <c r="A371" s="1"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="3"/>
+      <c r="A372" s="1"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="3"/>
+      <c r="A373" s="1"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="3"/>
+      <c r="A374" s="1"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="3"/>
+      <c r="A375" s="1"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="3"/>
+      <c r="A376" s="1"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="3"/>
+      <c r="A377" s="1"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="3"/>
+      <c r="A378" s="1"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="3"/>
+      <c r="A379" s="1"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="3"/>
+      <c r="A380" s="1"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="3"/>
+      <c r="A381" s="1"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="3"/>
+      <c r="A382" s="1"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="3"/>
+      <c r="A383" s="1"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="3"/>
+      <c r="A384" s="1"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="3"/>
+      <c r="A385" s="1"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="3"/>
+      <c r="A386" s="1"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="3"/>
+      <c r="A387" s="1"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="3"/>
+      <c r="A388" s="1"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="3"/>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="3"/>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="3"/>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="3"/>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="3"/>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="3"/>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="3"/>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="3"/>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="3"/>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="3"/>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="3"/>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="3"/>
+      <c r="A400" s="1"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="3"/>
+      <c r="A401" s="1"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="3"/>
+      <c r="A402" s="1"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="3"/>
+      <c r="A403" s="1"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="3"/>
+      <c r="A404" s="1"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="3"/>
+      <c r="A405" s="1"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="3"/>
+      <c r="A406" s="1"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="3"/>
+      <c r="A407" s="1"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="3"/>
+      <c r="A408" s="1"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="3"/>
+      <c r="A409" s="1"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="3"/>
+      <c r="A410" s="1"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="3"/>
+      <c r="A411" s="1"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="3"/>
+      <c r="A412" s="1"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="3"/>
+      <c r="A413" s="1"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="3"/>
+      <c r="A414" s="1"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="3"/>
+      <c r="A415" s="1"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="3"/>
+      <c r="A416" s="1"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="3"/>
+      <c r="A417" s="1"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="3"/>
+      <c r="A418" s="1"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="3"/>
+      <c r="A419" s="1"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="3"/>
+      <c r="A420" s="1"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="3"/>
+      <c r="A421" s="1"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="3"/>
+      <c r="A422" s="1"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="3"/>
+      <c r="A423" s="1"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="3"/>
+      <c r="A424" s="1"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="3"/>
+      <c r="A425" s="1"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="3"/>
+      <c r="A426" s="1"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="3"/>
+      <c r="A427" s="1"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="3"/>
+      <c r="A428" s="1"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="3"/>
+      <c r="A429" s="1"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="3"/>
+      <c r="A430" s="1"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="3"/>
+      <c r="A431" s="1"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="3"/>
+      <c r="A432" s="1"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="3"/>
+      <c r="A433" s="1"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="3"/>
+      <c r="A434" s="1"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="3"/>
+      <c r="A435" s="1"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="3"/>
+      <c r="A436" s="1"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="3"/>
+      <c r="A437" s="1"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="3"/>
+      <c r="A438" s="1"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="3"/>
+      <c r="A439" s="1"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="3"/>
+      <c r="A440" s="1"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="3"/>
+      <c r="A441" s="1"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="3"/>
+      <c r="A442" s="1"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="3"/>
+      <c r="A443" s="1"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="3"/>
+      <c r="A444" s="1"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="3"/>
+      <c r="A445" s="1"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="3"/>
+      <c r="A446" s="1"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="3"/>
+      <c r="A447" s="1"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="3"/>
+      <c r="A448" s="1"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="3"/>
+      <c r="A449" s="1"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="3"/>
+      <c r="A450" s="1"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="3"/>
+      <c r="A451" s="1"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="3"/>
+      <c r="A452" s="1"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="3"/>
+      <c r="A453" s="1"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="3"/>
+      <c r="A454" s="1"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="3"/>
+      <c r="A455" s="1"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="3"/>
+      <c r="A456" s="1"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="3"/>
+      <c r="A457" s="1"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="3"/>
+      <c r="A458" s="1"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="3"/>
+      <c r="A459" s="1"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="3"/>
+      <c r="A460" s="1"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="3"/>
+      <c r="A461" s="1"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="3"/>
+      <c r="A462" s="1"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="3"/>
+      <c r="A463" s="1"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="3"/>
+      <c r="A464" s="1"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="3"/>
+      <c r="A465" s="1"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="3"/>
+      <c r="A466" s="1"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="3"/>
+      <c r="A467" s="1"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="3"/>
+      <c r="A468" s="1"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="3"/>
+      <c r="A469" s="1"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="3"/>
+      <c r="A470" s="1"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="3"/>
+      <c r="A471" s="1"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="3"/>
+      <c r="A472" s="1"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="3"/>
+      <c r="A473" s="1"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="3"/>
+      <c r="A474" s="1"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="3"/>
+      <c r="A475" s="1"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="3"/>
+      <c r="A476" s="1"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="3"/>
+      <c r="A477" s="1"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="3"/>
+      <c r="A478" s="1"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="3"/>
+      <c r="A479" s="1"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="3"/>
+      <c r="A480" s="1"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="3"/>
+      <c r="A481" s="1"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="3"/>
+      <c r="A482" s="1"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="3"/>
+      <c r="A483" s="1"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="3"/>
+      <c r="A484" s="1"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="3"/>
+      <c r="A485" s="1"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="3"/>
+      <c r="A486" s="1"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="3"/>
+      <c r="A487" s="1"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="3"/>
+      <c r="A488" s="1"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="3"/>
+      <c r="A489" s="1"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="3"/>
+      <c r="A490" s="1"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="3"/>
+      <c r="A491" s="1"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="3"/>
+      <c r="A492" s="1"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="3"/>
+      <c r="A493" s="1"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="3"/>
+      <c r="A494" s="1"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="3"/>
+      <c r="A495" s="1"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="3"/>
+      <c r="A496" s="1"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="3"/>
+      <c r="A497" s="1"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="3"/>
+      <c r="A498" s="1"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="3"/>
+      <c r="A499" s="1"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="3"/>
+      <c r="A500" s="1"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="3"/>
+      <c r="A501" s="1"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="3"/>
+      <c r="A502" s="1"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="3"/>
+      <c r="A503" s="1"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="3"/>
+      <c r="A504" s="1"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="3"/>
+      <c r="A505" s="1"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="3"/>
+      <c r="A506" s="1"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="3"/>
+      <c r="A507" s="1"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="3"/>
+      <c r="A508" s="1"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="3"/>
+      <c r="A509" s="1"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="3"/>
+      <c r="A510" s="1"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="3"/>
+      <c r="A511" s="1"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="3"/>
+      <c r="A512" s="1"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="3"/>
+      <c r="A513" s="1"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="3"/>
+      <c r="A514" s="1"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="3"/>
+      <c r="A515" s="1"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="3"/>
+      <c r="A516" s="1"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="3"/>
+      <c r="A517" s="1"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="3"/>
+      <c r="A518" s="1"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="3"/>
+      <c r="A519" s="1"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="3"/>
+      <c r="A520" s="1"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="3"/>
+      <c r="A521" s="1"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="3"/>
+      <c r="A522" s="1"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="3"/>
+      <c r="A523" s="1"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="3"/>
+      <c r="A524" s="1"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="3"/>
+      <c r="A525" s="1"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="3"/>
+      <c r="A526" s="1"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="3"/>
+      <c r="A527" s="1"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="3"/>
+      <c r="A528" s="1"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="3"/>
+      <c r="A529" s="1"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="3"/>
+      <c r="A530" s="1"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="3"/>
+      <c r="A531" s="1"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="3"/>
+      <c r="A532" s="1"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="3"/>
+      <c r="A533" s="1"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="3"/>
+      <c r="A534" s="1"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="3"/>
+      <c r="A535" s="1"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="3"/>
+      <c r="A536" s="1"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="3"/>
+      <c r="A537" s="1"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="3"/>
+      <c r="A538" s="1"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="3"/>
+      <c r="A539" s="1"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="3"/>
+      <c r="A540" s="1"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="3"/>
+      <c r="A541" s="1"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="3"/>
+      <c r="A542" s="1"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="3"/>
+      <c r="A543" s="1"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="3"/>
+      <c r="A544" s="1"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="3"/>
+      <c r="A545" s="1"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="3"/>
+      <c r="A546" s="1"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="3"/>
+      <c r="A547" s="1"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="3"/>
+      <c r="A548" s="1"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="3"/>
+      <c r="A549" s="1"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="3"/>
+      <c r="A550" s="1"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="3"/>
+      <c r="A551" s="1"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="3"/>
+      <c r="A552" s="1"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="3"/>
+      <c r="A553" s="1"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="3"/>
+      <c r="A554" s="1"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="3"/>
+      <c r="A555" s="1"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="3"/>
+      <c r="A556" s="1"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="3"/>
+      <c r="A557" s="1"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="3"/>
+      <c r="A558" s="1"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="3"/>
+      <c r="A559" s="1"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="3"/>
+      <c r="A560" s="1"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="3"/>
+      <c r="A561" s="1"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="3"/>
+      <c r="A562" s="1"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="3"/>
+      <c r="A563" s="1"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="3"/>
+      <c r="A564" s="1"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="3"/>
+      <c r="A565" s="1"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="3"/>
+      <c r="A566" s="1"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="3"/>
+      <c r="A567" s="1"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="3"/>
+      <c r="A568" s="1"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="3"/>
+      <c r="A569" s="1"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="3"/>
+      <c r="A570" s="1"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="3"/>
+      <c r="A571" s="1"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="3"/>
+      <c r="A572" s="1"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="3"/>
+      <c r="A573" s="1"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="3"/>
+      <c r="A574" s="1"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="3"/>
+      <c r="A575" s="1"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="3"/>
+      <c r="A576" s="1"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="3"/>
+      <c r="A577" s="1"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="3"/>
+      <c r="A578" s="1"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="3"/>
+      <c r="A579" s="1"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="3"/>
+      <c r="A580" s="1"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="3"/>
+      <c r="A581" s="1"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="3"/>
+      <c r="A582" s="1"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="3"/>
+      <c r="A583" s="1"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="3"/>
+      <c r="A584" s="1"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="3"/>
+      <c r="A585" s="1"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="3"/>
+      <c r="A586" s="1"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="3"/>
+      <c r="A587" s="1"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="3"/>
+      <c r="A588" s="1"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="3"/>
+      <c r="A589" s="1"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="3"/>
+      <c r="A590" s="1"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="3"/>
+      <c r="A591" s="1"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="3"/>
+      <c r="A592" s="1"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="3"/>
+      <c r="A593" s="1"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="3"/>
+      <c r="A594" s="1"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="3"/>
+      <c r="A595" s="1"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="3"/>
+      <c r="A596" s="1"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="3"/>
+      <c r="A597" s="1"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="3"/>
+      <c r="A598" s="1"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="3"/>
+      <c r="A599" s="1"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="3"/>
+      <c r="A600" s="1"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="3"/>
+      <c r="A601" s="1"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="3"/>
+      <c r="A602" s="1"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="3"/>
+      <c r="A603" s="1"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="3"/>
+      <c r="A604" s="1"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="3"/>
+      <c r="A605" s="1"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="3"/>
+      <c r="A606" s="1"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="3"/>
+      <c r="A607" s="1"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="3"/>
+      <c r="A608" s="1"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="3"/>
+      <c r="A609" s="1"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="3"/>
+      <c r="A610" s="1"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="3"/>
+      <c r="A611" s="1"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="3"/>
+      <c r="A612" s="1"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="3"/>
+      <c r="A613" s="1"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="3"/>
+      <c r="A614" s="1"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="3"/>
+      <c r="A615" s="1"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="3"/>
+      <c r="A616" s="1"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="3"/>
+      <c r="A617" s="1"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="3"/>
+      <c r="A618" s="1"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="3"/>
+      <c r="A619" s="1"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="3"/>
+      <c r="A620" s="1"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="3"/>
+      <c r="A621" s="1"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="3"/>
+      <c r="A622" s="1"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="3"/>
+      <c r="A623" s="1"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="3"/>
+      <c r="A624" s="1"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="3"/>
+      <c r="A625" s="1"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="3"/>
+      <c r="A626" s="1"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="3"/>
+      <c r="A627" s="1"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="3"/>
+      <c r="A628" s="1"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="3"/>
+      <c r="A629" s="1"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="3"/>
+      <c r="A630" s="1"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="3"/>
+      <c r="A631" s="1"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="3"/>
+      <c r="A632" s="1"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="3"/>
+      <c r="A633" s="1"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="3"/>
+      <c r="A634" s="1"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="3"/>
+      <c r="A635" s="1"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="3"/>
+      <c r="A636" s="1"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="3"/>
+      <c r="A637" s="1"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="3"/>
+      <c r="A638" s="1"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="3"/>
+      <c r="A639" s="1"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="3"/>
+      <c r="A640" s="1"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="3"/>
+      <c r="A641" s="1"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="3"/>
+      <c r="A642" s="1"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="3"/>
+      <c r="A643" s="1"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="3"/>
+      <c r="A644" s="1"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="3"/>
+      <c r="A645" s="1"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="3"/>
+      <c r="A646" s="1"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="3"/>
+      <c r="A647" s="1"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="3"/>
+      <c r="A648" s="1"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="3"/>
+      <c r="A649" s="1"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="3"/>
+      <c r="A650" s="1"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="3"/>
+      <c r="A651" s="1"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="3"/>
+      <c r="A652" s="1"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="3"/>
+      <c r="A653" s="1"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="3"/>
+      <c r="A654" s="1"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="3"/>
+      <c r="A655" s="1"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="3"/>
+      <c r="A656" s="1"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="3"/>
+      <c r="A657" s="1"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="3"/>
+      <c r="A658" s="1"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="3"/>
+      <c r="A659" s="1"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="3"/>
+      <c r="A660" s="1"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="3"/>
+      <c r="A661" s="1"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="3"/>
+      <c r="A662" s="1"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="3"/>
+      <c r="A663" s="1"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="3"/>
+      <c r="A664" s="1"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="3"/>
+      <c r="A665" s="1"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="3"/>
+      <c r="A666" s="1"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="3"/>
+      <c r="A667" s="1"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="3"/>
+      <c r="A668" s="1"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="3"/>
+      <c r="A669" s="1"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="3"/>
+      <c r="A670" s="1"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="3"/>
+      <c r="A671" s="1"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="3"/>
+      <c r="A672" s="1"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="3"/>
+      <c r="A673" s="1"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="3"/>
+      <c r="A674" s="1"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="3"/>
+      <c r="A675" s="1"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="3"/>
+      <c r="A676" s="1"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="3"/>
+      <c r="A677" s="1"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="3"/>
+      <c r="A678" s="1"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="3"/>
+      <c r="A679" s="1"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="3"/>
+      <c r="A680" s="1"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="3"/>
+      <c r="A681" s="1"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="3"/>
+      <c r="A682" s="1"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="3"/>
+      <c r="A683" s="1"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="3"/>
+      <c r="A684" s="1"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="3"/>
+      <c r="A685" s="1"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="3"/>
+      <c r="A686" s="1"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="3"/>
+      <c r="A687" s="1"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="3"/>
+      <c r="A688" s="1"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="3"/>
+      <c r="A689" s="1"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="3"/>
+      <c r="A690" s="1"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="3"/>
+      <c r="A691" s="1"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="3"/>
+      <c r="A692" s="1"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="3"/>
+      <c r="A693" s="1"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="3"/>
+      <c r="A694" s="1"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="3"/>
+      <c r="A695" s="1"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="3"/>
+      <c r="A696" s="1"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="3"/>
+      <c r="A697" s="1"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="3"/>
+      <c r="A698" s="1"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="3"/>
+      <c r="A699" s="1"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="3"/>
+      <c r="A700" s="1"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="3"/>
+      <c r="A701" s="1"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="3"/>
+      <c r="A702" s="1"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="3"/>
+      <c r="A703" s="1"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="3"/>
+      <c r="A704" s="1"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="3"/>
+      <c r="A705" s="1"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="3"/>
+      <c r="A706" s="1"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="3"/>
+      <c r="A707" s="1"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="3"/>
+      <c r="A708" s="1"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="3"/>
+      <c r="A709" s="1"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="3"/>
+      <c r="A710" s="1"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="3"/>
+      <c r="A711" s="1"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="3"/>
+      <c r="A712" s="1"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="3"/>
+      <c r="A713" s="1"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="3"/>
+      <c r="A714" s="1"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="3"/>
+      <c r="A715" s="1"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="3"/>
+      <c r="A716" s="1"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="3"/>
+      <c r="A717" s="1"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="3"/>
+      <c r="A718" s="1"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="3"/>
+      <c r="A719" s="1"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="3"/>
+      <c r="A720" s="1"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="3"/>
+      <c r="A721" s="1"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="3"/>
+      <c r="A722" s="1"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="3"/>
+      <c r="A723" s="1"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="3"/>
+      <c r="A724" s="1"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="3"/>
+      <c r="A725" s="1"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="3"/>
+      <c r="A726" s="1"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="3"/>
+      <c r="A727" s="1"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="3"/>
+      <c r="A728" s="1"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="3"/>
+      <c r="A729" s="1"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="3"/>
+      <c r="A730" s="1"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="3"/>
+      <c r="A731" s="1"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="3"/>
+      <c r="A732" s="1"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="3"/>
+      <c r="A733" s="1"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="3"/>
+      <c r="A734" s="1"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="3"/>
+      <c r="A735" s="1"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="3"/>
+      <c r="A736" s="1"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="3"/>
+      <c r="A737" s="1"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="3"/>
+      <c r="A738" s="1"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="3"/>
+      <c r="A739" s="1"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="3"/>
+      <c r="A740" s="1"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="3"/>
+      <c r="A741" s="1"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="3"/>
+      <c r="A742" s="1"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="3"/>
+      <c r="A743" s="1"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="3"/>
+      <c r="A744" s="1"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="3"/>
+      <c r="A745" s="1"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="3"/>
+      <c r="A746" s="1"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="3"/>
+      <c r="A747" s="1"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="3"/>
+      <c r="A748" s="1"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="3"/>
+      <c r="A749" s="1"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="3"/>
+      <c r="A750" s="1"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="3"/>
+      <c r="A751" s="1"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="3"/>
+      <c r="A752" s="1"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="3"/>
+      <c r="A753" s="1"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="3"/>
+      <c r="A754" s="1"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="3"/>
+      <c r="A755" s="1"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="3"/>
+      <c r="A756" s="1"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="3"/>
+      <c r="A757" s="1"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="3"/>
+      <c r="A758" s="1"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="3"/>
+      <c r="A759" s="1"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="3"/>
+      <c r="A760" s="1"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="3"/>
+      <c r="A761" s="1"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="3"/>
+      <c r="A762" s="1"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="3"/>
+      <c r="A763" s="1"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="3"/>
+      <c r="A764" s="1"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="3"/>
+      <c r="A765" s="1"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="3"/>
+      <c r="A766" s="1"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="3"/>
+      <c r="A767" s="1"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="3"/>
+      <c r="A768" s="1"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="3"/>
+      <c r="A769" s="1"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="3"/>
+      <c r="A770" s="1"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="3"/>
+      <c r="A771" s="1"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="3"/>
+      <c r="A772" s="1"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="3"/>
+      <c r="A773" s="1"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="3"/>
+      <c r="A774" s="1"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="3"/>
+      <c r="A775" s="1"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="3"/>
+      <c r="A776" s="1"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="3"/>
+      <c r="A777" s="1"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="3"/>
+      <c r="A778" s="1"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="3"/>
+      <c r="A779" s="1"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="3"/>
+      <c r="A780" s="1"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="3"/>
+      <c r="A781" s="1"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="3"/>
+      <c r="A782" s="1"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="3"/>
+      <c r="A783" s="1"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="3"/>
+      <c r="A784" s="1"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="3"/>
+      <c r="A785" s="1"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="3"/>
+      <c r="A786" s="1"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="3"/>
+      <c r="A787" s="1"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="3"/>
+      <c r="A788" s="1"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="3"/>
+      <c r="A789" s="1"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="3"/>
+      <c r="A790" s="1"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="3"/>
+      <c r="A791" s="1"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="3"/>
+      <c r="A792" s="1"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="3"/>
+      <c r="A793" s="1"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="3"/>
+      <c r="A794" s="1"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="3"/>
+      <c r="A795" s="1"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="3"/>
+      <c r="A796" s="1"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="3"/>
+      <c r="A797" s="1"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="3"/>
+      <c r="A798" s="1"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="3"/>
+      <c r="A799" s="1"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="3"/>
+      <c r="A800" s="1"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="3"/>
+      <c r="A801" s="1"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="3"/>
+      <c r="A802" s="1"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="3"/>
+      <c r="A803" s="1"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="3"/>
+      <c r="A804" s="1"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="3"/>
+      <c r="A805" s="1"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="3"/>
+      <c r="A806" s="1"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="3"/>
+      <c r="A807" s="1"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="3"/>
+      <c r="A808" s="1"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="3"/>
+      <c r="A809" s="1"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="3"/>
+      <c r="A810" s="1"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="3"/>
+      <c r="A811" s="1"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="3"/>
+      <c r="A812" s="1"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="3"/>
+      <c r="A813" s="1"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="3"/>
+      <c r="A814" s="1"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="3"/>
+      <c r="A815" s="1"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="3"/>
+      <c r="A816" s="1"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="3"/>
+      <c r="A817" s="1"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="3"/>
+      <c r="A818" s="1"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="3"/>
+      <c r="A819" s="1"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="3"/>
+      <c r="A820" s="1"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="3"/>
+      <c r="A821" s="1"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="3"/>
+      <c r="A822" s="1"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="3"/>
+      <c r="A823" s="1"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="3"/>
+      <c r="A824" s="1"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="3"/>
+      <c r="A825" s="1"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="3"/>
+      <c r="A826" s="1"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="3"/>
+      <c r="A827" s="1"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="3"/>
+      <c r="A828" s="1"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="3"/>
+      <c r="A829" s="1"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="3"/>
+      <c r="A830" s="1"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="3"/>
+      <c r="A831" s="1"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="3"/>
+      <c r="A832" s="1"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="3"/>
+      <c r="A833" s="1"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="3"/>
+      <c r="A834" s="1"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="3"/>
+      <c r="A835" s="1"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="3"/>
+      <c r="A836" s="1"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="3"/>
+      <c r="A837" s="1"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="3"/>
+      <c r="A838" s="1"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="3"/>
+      <c r="A839" s="1"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="3"/>
+      <c r="A840" s="1"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="3"/>
+      <c r="A841" s="1"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="3"/>
+      <c r="A842" s="1"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="3"/>
+      <c r="A843" s="1"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="3"/>
+      <c r="A844" s="1"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="3"/>
+      <c r="A845" s="1"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="3"/>
+      <c r="A846" s="1"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="3"/>
+      <c r="A847" s="1"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="3"/>
+      <c r="A848" s="1"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="3"/>
+      <c r="A849" s="1"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="3"/>
+      <c r="A850" s="1"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="3"/>
+      <c r="A851" s="1"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="3"/>
+      <c r="A852" s="1"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="3"/>
+      <c r="A853" s="1"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="3"/>
+      <c r="A854" s="1"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="3"/>
+      <c r="A855" s="1"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="3"/>
+      <c r="A856" s="1"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="3"/>
+      <c r="A857" s="1"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="3"/>
+      <c r="A858" s="1"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="3"/>
+      <c r="A859" s="1"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="3"/>
+      <c r="A860" s="1"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="3"/>
+      <c r="A861" s="1"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="3"/>
+      <c r="A862" s="1"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="3"/>
+      <c r="A863" s="1"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="3"/>
+      <c r="A864" s="1"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="3"/>
+      <c r="A865" s="1"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="3"/>
+      <c r="A866" s="1"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="3"/>
+      <c r="A867" s="1"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="3"/>
+      <c r="A868" s="1"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="3"/>
+      <c r="A869" s="1"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="3"/>
+      <c r="A870" s="1"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="3"/>
+      <c r="A871" s="1"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="3"/>
+      <c r="A872" s="1"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="3"/>
+      <c r="A873" s="1"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="3"/>
+      <c r="A874" s="1"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="3"/>
+      <c r="A875" s="1"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="3"/>
+      <c r="A876" s="1"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="3"/>
+      <c r="A877" s="1"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="3"/>
+      <c r="A878" s="1"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="3"/>
+      <c r="A879" s="1"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="3"/>
+      <c r="A880" s="1"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="3"/>
+      <c r="A881" s="1"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="3"/>
+      <c r="A882" s="1"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="3"/>
+      <c r="A883" s="1"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="3"/>
+      <c r="A884" s="1"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="3"/>
+      <c r="A885" s="1"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="3"/>
+      <c r="A886" s="1"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="3"/>
+      <c r="A887" s="1"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="3"/>
+      <c r="A888" s="1"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="3"/>
+      <c r="A889" s="1"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="3"/>
+      <c r="A890" s="1"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="3"/>
+      <c r="A891" s="1"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="3"/>
+      <c r="A892" s="1"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="3"/>
+      <c r="A893" s="1"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="3"/>
+      <c r="A894" s="1"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="3"/>
+      <c r="A895" s="1"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="3"/>
+      <c r="A896" s="1"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="3"/>
+      <c r="A897" s="1"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="3"/>
+      <c r="A898" s="1"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="3"/>
+      <c r="A899" s="1"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="3"/>
+      <c r="A900" s="1"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="3"/>
+      <c r="A901" s="1"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="3"/>
+      <c r="A902" s="1"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="3"/>
+      <c r="A903" s="1"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="3"/>
+      <c r="A904" s="1"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="3"/>
+      <c r="A905" s="1"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="3"/>
+      <c r="A906" s="1"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="3"/>
+      <c r="A907" s="1"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="3"/>
+      <c r="A908" s="1"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="3"/>
+      <c r="A909" s="1"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="3"/>
+      <c r="A910" s="1"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="3"/>
+      <c r="A911" s="1"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="3"/>
+      <c r="A912" s="1"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="3"/>
+      <c r="A913" s="1"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="3"/>
+      <c r="A914" s="1"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="3"/>
+      <c r="A915" s="1"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="3"/>
+      <c r="A916" s="1"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="3"/>
+      <c r="A917" s="1"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="3"/>
+      <c r="A918" s="1"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="3"/>
+      <c r="A919" s="1"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="3"/>
+      <c r="A920" s="1"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="3"/>
+      <c r="A921" s="1"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="3"/>
+      <c r="A922" s="1"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="3"/>
+      <c r="A923" s="1"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="3"/>
+      <c r="A924" s="1"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="3"/>
+      <c r="A925" s="1"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="3"/>
+      <c r="A926" s="1"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="3"/>
+      <c r="A927" s="1"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="3"/>
+      <c r="A928" s="1"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="3"/>
+      <c r="A929" s="1"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="3"/>
+      <c r="A930" s="1"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="3"/>
+      <c r="A931" s="1"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="3"/>
+      <c r="A932" s="1"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="3"/>
+      <c r="A933" s="1"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="3"/>
+      <c r="A934" s="1"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="3"/>
+      <c r="A935" s="1"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="3"/>
+      <c r="A936" s="1"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="3"/>
+      <c r="A937" s="1"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="3"/>
+      <c r="A938" s="1"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="3"/>
+      <c r="A939" s="1"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="3"/>
+      <c r="A940" s="1"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="3"/>
+      <c r="A941" s="1"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="3"/>
+      <c r="A942" s="1"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="3"/>
+      <c r="A943" s="1"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="3"/>
+      <c r="A944" s="1"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="3"/>
+      <c r="A945" s="1"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="3"/>
+      <c r="A946" s="1"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="3"/>
+      <c r="A947" s="1"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="3"/>
+      <c r="A948" s="1"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="3"/>
+      <c r="A949" s="1"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="3"/>
+      <c r="A950" s="1"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="3"/>
+      <c r="A951" s="1"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="3"/>
+      <c r="A952" s="1"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="3"/>
+      <c r="A953" s="1"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="3"/>
+      <c r="A954" s="1"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="3"/>
+      <c r="A955" s="1"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="3"/>
+      <c r="A956" s="1"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="3"/>
+      <c r="A957" s="1"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="3"/>
+      <c r="A958" s="1"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="3"/>
+      <c r="A959" s="1"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="3"/>
+      <c r="A960" s="1"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="3"/>
+      <c r="A961" s="1"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="3"/>
+      <c r="A962" s="1"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="3"/>
+      <c r="A963" s="1"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="3"/>
+      <c r="A964" s="1"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="3"/>
+      <c r="A965" s="1"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="3"/>
+      <c r="A966" s="1"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="3"/>
+      <c r="A967" s="1"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="3"/>
+      <c r="A968" s="1"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="3"/>
+      <c r="A969" s="1"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="3"/>
+      <c r="A970" s="1"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="3"/>
+      <c r="A971" s="1"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="3"/>
+      <c r="A972" s="1"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="3"/>
+      <c r="A973" s="1"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="3"/>
+      <c r="A974" s="1"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="3"/>
+      <c r="A975" s="1"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="3"/>
+      <c r="A976" s="1"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="3"/>
+      <c r="A977" s="1"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="3"/>
+      <c r="A978" s="1"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="3"/>
+      <c r="A979" s="1"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="3"/>
+      <c r="A980" s="1"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="3"/>
+      <c r="A981" s="1"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="3"/>
+      <c r="A982" s="1"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="3"/>
+      <c r="A983" s="1"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="3"/>
+      <c r="A984" s="1"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="3"/>
+      <c r="A985" s="1"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="3"/>
+      <c r="A986" s="1"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="3"/>
+      <c r="A987" s="1"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="3"/>
+      <c r="A988" s="1"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="3"/>
+      <c r="A989" s="1"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="3"/>
+      <c r="A990" s="1"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="3"/>
+      <c r="A991" s="1"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="3"/>
+      <c r="A992" s="1"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="3"/>
+      <c r="A993" s="1"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="3"/>
+      <c r="A994" s="1"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="3"/>
+      <c r="A995" s="1"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="3"/>
+      <c r="A996" s="1"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="3"/>
+      <c r="A997" s="1"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="3"/>
+      <c r="A998" s="1"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="3"/>
+      <c r="A999" s="1"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="3"/>
+      <c r="A1000" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4667,48 +5345,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>146</v>
+      <c r="A1" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>147</v>
+      <c r="A2" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>148</v>
+      <c r="A3" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>149</v>
+      <c r="A4" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>150</v>
+      <c r="A5" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>151</v>
+      <c r="A6" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>152</v>
+      <c r="A7" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>153</v>
+      <c r="A8" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>154</v>
+      <c r="A9" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
